--- a/SAE_3_01/fichiers genere/S4AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFA.xlsx
@@ -3302,10 +3302,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3322,10 +3334,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3342,7 +3362,11 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
@@ -3362,9 +3386,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3382,10 +3418,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -3402,10 +3446,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5093,10 +5145,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5113,10 +5173,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6884,10 +6952,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6904,10 +6984,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6924,10 +7016,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -8675,9 +8775,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8695,10 +8803,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -10466,8 +10582,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -10486,10 +10610,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -12257,9 +12389,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -14048,10 +14188,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -14068,9 +14216,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFA.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du relationnel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionnelle en anglais" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les organisations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R4.A.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.A.09 Management avancé des systèmes d'information" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.A.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="R4.A.10 Compléments Web" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.A.11 Développement pour applications mobiles" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.A.11 Développement pour appl" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R4.A.12 Automates et langages" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
@@ -3274,16 +3274,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3302,18 +3294,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5049,21 +5033,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5081,22 +5053,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -6832,22 +6792,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6864,17 +6812,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8611,16 +8551,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10378,26 +10310,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10414,18 +10330,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10442,16 +10350,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -10470,21 +10370,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10502,18 +10390,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10530,18 +10410,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12197,18 +12069,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12225,18 +12089,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -13972,17 +13828,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14000,18 +13848,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14028,18 +13868,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15755,22 +15587,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15787,22 +15607,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15819,18 +15627,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17546,18 +17346,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17574,18 +17366,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17602,18 +17386,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17630,18 +17406,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17658,18 +17426,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19345,17 +19105,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19373,17 +19125,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19401,17 +19145,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21128,17 +20864,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21156,17 +20884,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22903,17 +22623,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22931,17 +22643,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22959,18 +22663,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFA.xlsx
@@ -3274,9 +3274,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3294,9 +3306,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3314,9 +3334,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3334,9 +3362,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3354,10 +3390,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -5033,10 +5081,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5053,7 +5113,11 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
@@ -6792,10 +6856,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6812,9 +6884,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6832,9 +6912,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6852,10 +6940,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8551,8 +8647,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8571,9 +8675,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8591,9 +8703,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8611,10 +8731,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -10310,10 +10438,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10330,10 +10470,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10350,7 +10498,11 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
@@ -10370,9 +10522,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10390,10 +10554,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10410,10 +10582,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12069,10 +12249,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12089,10 +12277,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -13828,9 +14024,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13848,9 +14052,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13868,7 +14080,11 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
@@ -15587,10 +15803,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15607,10 +15831,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15627,10 +15859,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17346,10 +17586,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17366,10 +17614,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17386,10 +17642,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17406,10 +17670,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17426,10 +17698,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19105,9 +19385,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19125,9 +19413,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19145,9 +19441,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20864,9 +21168,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20884,9 +21196,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22623,9 +22943,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22643,9 +22975,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22663,10 +23003,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFA.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R4.01 Architecture logicielle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R4.02 Qualité de développement" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R4.03 Qualité et au-delà du rel" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R4.04 Méthodes d'optimisation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R4.05 Communicaton professionne" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R4.06 Communication dans les or" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R4.07 PPP" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R4.A.08 Virtualisation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R4.A.09 Management avancé des s" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R4.A.10 Compléments Web" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R4.A.11 Développement pour appl" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R4.A.12 Automates et langages" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R4.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R4.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R4.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R4.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R4.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R4.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R4.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R4.A.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R4.A.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R4.A.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R4.A.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R4.A.12" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3364,7 +3364,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -3392,7 +3392,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -3401,11 +3401,7 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -3422,10 +3418,22 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -5086,15 +5094,19 @@
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -5115,12 +5127,24 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5137,10 +5161,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6119,7 +6155,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -6862,7 +6898,11 @@
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
@@ -6968,10 +7008,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -9701,7 +9749,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -10443,7 +10491,11 @@
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
@@ -10475,8 +10527,16 @@
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -10503,8 +10563,16 @@
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12286,7 +12354,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -12305,10 +12373,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14026,7 +14102,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -14054,13 +14130,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -14082,11 +14158,15 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14104,9 +14184,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -14124,10 +14212,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -14144,10 +14240,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -16849,7 +16953,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -17616,7 +17720,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -17644,7 +17748,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -17672,7 +17776,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -17700,7 +17804,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -17726,10 +17830,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -17746,10 +17858,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -21176,7 +21296,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -21204,7 +21324,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -23009,10 +23129,14 @@
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S4AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S4AFA.xlsx
@@ -5177,7 +5177,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -6155,7 +6159,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -9749,7 +9753,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -10574,7 +10578,11 @@
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -14252,7 +14260,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -16953,7 +16965,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -23139,7 +23151,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
